--- a/!OLD_MANSURA/Python/HISTORY/Daily/2022-11-22.xlsx
+++ b/!OLD_MANSURA/Python/HISTORY/Daily/2022-11-22.xlsx
@@ -509,17 +509,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>$0.8</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$0.16</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$0.64</t>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a $0.00</t>
+          <t>admin $0.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>foreandr $0.16</t>
+          <t>foreandr $0.00</t>
         </is>
       </c>
     </row>
